--- a/Mediciones/Mediciones.xlsx
+++ b/Mediciones/Mediciones.xlsx
@@ -19,17 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Medición</t>
   </si>
   <si>
-    <t>ch1: VL2, ch2:Vo2, math: VD2 (IL2)</t>
-  </si>
-  <si>
-    <t>ch1: VL3, ch2: Vo3, math: VD3 (IL3), ch3: Vds(IL1)</t>
-  </si>
-  <si>
     <t>ch1: Vds, ch2: Vcsn, math: VRsn</t>
   </si>
   <si>
@@ -49,6 +43,54 @@
   </si>
   <si>
     <t>ch1: Vo2, trigger ext: Vgs</t>
+  </si>
+  <si>
+    <t>Realimentación cruzada</t>
+  </si>
+  <si>
+    <t>4, 5, 6</t>
+  </si>
+  <si>
+    <t>ch1: Vds, ch2: Vgs, ch3: Vo3 (Ruido audible)</t>
+  </si>
+  <si>
+    <t>ch1: Vds, ch2: Vgs, ch3: Vo3 (encendido)</t>
+  </si>
+  <si>
+    <t>ch1: Vds, ch2: Vgs, ch3: Vo3 (apagado)</t>
+  </si>
+  <si>
+    <t>ch1: Vds(IL1)</t>
+  </si>
+  <si>
+    <t>7, 8 (13 con ringing)</t>
+  </si>
+  <si>
+    <t>11 (14 con ringing)</t>
+  </si>
+  <si>
+    <t>10 (13 con ringing)</t>
+  </si>
+  <si>
+    <t>DCM</t>
+  </si>
+  <si>
+    <t>130VRMS</t>
+  </si>
+  <si>
+    <t>0 de alex</t>
+  </si>
+  <si>
+    <t>ch1: Vo2, ch2:VL2, math: VD2 (IL2)</t>
+  </si>
+  <si>
+    <t>1 de alex</t>
+  </si>
+  <si>
+    <t>PREGUNTAR COSSUTTA SE PORTA MAL EL OSCI</t>
+  </si>
+  <si>
+    <t>3y4 de Alex, 16y17 oli. Zoom de Vo3 en 18 oli</t>
   </si>
 </sst>
 </file>
@@ -100,13 +142,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,66 +435,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mediciones/Mediciones.xlsx
+++ b/Mediciones/Mediciones.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Medición</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>3y4 de Alex, 16y17 oli. Zoom de Vo3 en 18 oli</t>
+  </si>
+  <si>
+    <t>d1</t>
   </si>
 </sst>
 </file>
@@ -142,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -155,6 +158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,7 +566,9 @@
       <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -589,8 +595,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mediciones/Mediciones.xlsx
+++ b/Mediciones/Mediciones.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Medición</t>
   </si>
@@ -87,13 +87,10 @@
     <t>1 de alex</t>
   </si>
   <si>
-    <t>PREGUNTAR COSSUTTA SE PORTA MAL EL OSCI</t>
-  </si>
-  <si>
     <t>3y4 de Alex, 16y17 oli. Zoom de Vo3 en 18 oli</t>
   </si>
   <si>
-    <t>d1</t>
+    <t>d2</t>
   </si>
 </sst>
 </file>
@@ -442,7 +439,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,8 +539,8 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>22</v>
+      <c r="B8" s="5">
+        <v>20</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -567,7 +564,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -592,8 +589,11 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>

--- a/Mediciones/Mediciones.xlsx
+++ b/Mediciones/Mediciones.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Medición</t>
   </si>
@@ -72,9 +72,6 @@
     <t>10 (13 con ringing)</t>
   </si>
   <si>
-    <t>DCM</t>
-  </si>
-  <si>
     <t>130VRMS</t>
   </si>
   <si>
@@ -91,6 +88,24 @@
   </si>
   <si>
     <t>d2</t>
+  </si>
+  <si>
+    <t>7 alex</t>
+  </si>
+  <si>
+    <t>8 alex</t>
+  </si>
+  <si>
+    <t>MaxPot (R2=33, R3=15.6)</t>
+  </si>
+  <si>
+    <t>DCM (R2=1k, R3=1k)</t>
+  </si>
+  <si>
+    <t>02 alex</t>
+  </si>
+  <si>
+    <t>03 alex</t>
   </si>
 </sst>
 </file>
@@ -439,15 +454,15 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41.88671875" customWidth="1"/>
     <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="24.109375" customWidth="1"/>
     <col min="6" max="6" width="21.109375" customWidth="1"/>
   </cols>
@@ -460,7 +475,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -470,8 +488,12 @@
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
@@ -528,10 +550,14 @@
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
@@ -549,10 +575,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -564,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -576,7 +602,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -589,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
